--- a/ods/25-KW10 Time-Sheet.xlsx
+++ b/ods/25-KW10 Time-Sheet.xlsx
@@ -1125,8 +1125,8 @@
   </sheetPr>
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="176" zoomScaleNormal="100" zoomScalePageLayoutView="176" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="149" zoomScaleNormal="100" zoomScalePageLayoutView="149" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H57" activeCellId="0" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.3359375" defaultRowHeight="12.75" customHeight="1" zeroHeight="0" outlineLevelRow="0"/>
@@ -1275,7 +1275,7 @@
       <c r="J9" s="97" t="n"/>
       <c r="K9" s="97" t="n"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1" s="69">
+    <row r="10" ht="12.8" customHeight="1" s="69">
       <c r="H10" s="98" t="n"/>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="69">
@@ -1563,7 +1563,7 @@
           <t>TH1</t>
         </is>
       </c>
-      <c r="B26" s="101" t="inlineStr">
+      <c r="B26" s="122" t="inlineStr">
         <is>
           <t xml:space="preserve"> 4OG Modbus 2te Linie Nachrüstung &amp; Implementierung</t>
         </is>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="K31" s="115" t="n"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1" s="69">
+    <row r="32" ht="12.8" customHeight="1" s="69">
       <c r="A32" s="119" t="n"/>
       <c r="B32" s="120" t="n"/>
       <c r="C32" s="120" t="n"/>
@@ -1741,7 +1741,7 @@
       <c r="M33" s="105" t="n"/>
     </row>
     <row r="34" ht="19.5" customHeight="1" s="69">
-      <c r="A34" s="100" t="n"/>
+      <c r="A34" s="121" t="n"/>
       <c r="B34" s="122" t="n"/>
       <c r="C34" s="102" t="n"/>
       <c r="D34" s="102" t="n"/>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="K41" s="115" t="n"/>
     </row>
-    <row r="42" ht="12.75" customHeight="1" s="69">
+    <row r="42" ht="12.8" customHeight="1" s="69">
       <c r="A42" s="119" t="n"/>
       <c r="B42" s="120" t="n"/>
       <c r="C42" s="120" t="n"/>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="K51" s="115" t="n"/>
     </row>
-    <row r="52" ht="12.75" customHeight="1" s="69">
+    <row r="52" ht="12.8" customHeight="1" s="69">
       <c r="A52" s="119" t="n"/>
       <c r="B52" s="120" t="n"/>
       <c r="C52" s="120" t="n"/>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="K60" s="115" t="n"/>
     </row>
-    <row r="61" ht="12.75" customHeight="1" s="69">
+    <row r="61" ht="12.8" customHeight="1" s="69">
       <c r="A61" s="119" t="n"/>
       <c r="B61" s="120" t="n"/>
       <c r="C61" s="120" t="n"/>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="K67" s="137" t="n"/>
     </row>
-    <row r="68" ht="12.75" customHeight="1" s="69">
+    <row r="68" ht="12.8" customHeight="1" s="69">
       <c r="A68" s="119" t="n"/>
       <c r="B68" s="120" t="n"/>
       <c r="C68" s="120" t="n"/>
@@ -2502,7 +2502,7 @@
       <c r="J68" s="119" t="n"/>
       <c r="K68" s="119" t="n"/>
     </row>
-    <row r="69" ht="12.75" customHeight="1" s="69">
+    <row r="69" ht="12.8" customHeight="1" s="69">
       <c r="A69" s="119" t="n"/>
       <c r="B69" s="120" t="n"/>
       <c r="C69" s="120" t="n"/>
@@ -2515,7 +2515,7 @@
       <c r="J69" s="119" t="n"/>
       <c r="K69" s="119" t="n"/>
     </row>
-    <row r="70" ht="12.75" customHeight="1" s="69">
+    <row r="70" ht="12.8" customHeight="1" s="69">
       <c r="A70" s="119" t="n"/>
       <c r="B70" s="120" t="n"/>
       <c r="C70" s="120" t="n"/>
@@ -2528,7 +2528,7 @@
       <c r="J70" s="119" t="n"/>
       <c r="K70" s="119" t="n"/>
     </row>
-    <row r="71" ht="12.75" customHeight="1" s="69">
+    <row r="71" ht="12.8" customHeight="1" s="69">
       <c r="A71" s="119" t="n"/>
       <c r="B71" s="120" t="n"/>
       <c r="C71" s="120" t="n"/>
@@ -2541,7 +2541,7 @@
       <c r="J71" s="119" t="n"/>
       <c r="K71" s="119" t="n"/>
     </row>
-    <row r="72" ht="12.75" customHeight="1" s="69">
+    <row r="72" ht="12.8" customHeight="1" s="69">
       <c r="A72" s="119" t="n"/>
       <c r="B72" s="120" t="n"/>
       <c r="C72" s="120" t="n"/>
@@ -2554,7 +2554,7 @@
       <c r="J72" s="119" t="n"/>
       <c r="K72" s="119" t="n"/>
     </row>
-    <row r="73" ht="12.75" customHeight="1" s="69">
+    <row r="73" ht="12.8" customHeight="1" s="69">
       <c r="A73" s="119" t="n"/>
       <c r="B73" s="120" t="n"/>
       <c r="C73" s="120" t="n"/>
@@ -2567,7 +2567,7 @@
       <c r="J73" s="119" t="n"/>
       <c r="K73" s="119" t="n"/>
     </row>
-    <row r="74" ht="12.75" customHeight="1" s="69">
+    <row r="74" ht="12.8" customHeight="1" s="69">
       <c r="A74" s="119" t="n"/>
       <c r="B74" s="120" t="n"/>
       <c r="C74" s="120" t="n"/>
@@ -2580,7 +2580,7 @@
       <c r="J74" s="119" t="n"/>
       <c r="K74" s="119" t="n"/>
     </row>
-    <row r="75" ht="12.75" customHeight="1" s="69">
+    <row r="75" ht="12.8" customHeight="1" s="69">
       <c r="A75" s="119" t="n"/>
       <c r="B75" s="120" t="n"/>
       <c r="C75" s="120" t="n"/>
@@ -2593,7 +2593,7 @@
       <c r="J75" s="119" t="n"/>
       <c r="K75" s="119" t="n"/>
     </row>
-    <row r="76" ht="12.75" customHeight="1" s="69">
+    <row r="76" ht="12.8" customHeight="1" s="69">
       <c r="A76" s="119" t="n"/>
       <c r="B76" s="120" t="n"/>
       <c r="C76" s="120" t="n"/>
@@ -2606,7 +2606,7 @@
       <c r="J76" s="119" t="n"/>
       <c r="K76" s="119" t="n"/>
     </row>
-    <row r="77" ht="12.75" customHeight="1" s="69">
+    <row r="77" ht="12.8" customHeight="1" s="69">
       <c r="A77" s="119" t="n"/>
       <c r="B77" s="120" t="n"/>
       <c r="C77" s="120" t="n"/>
@@ -2619,7 +2619,7 @@
       <c r="J77" s="119" t="n"/>
       <c r="K77" s="119" t="n"/>
     </row>
-    <row r="78" ht="12.75" customHeight="1" s="69">
+    <row r="78" ht="12.8" customHeight="1" s="69">
       <c r="A78" s="119" t="n"/>
       <c r="B78" s="120" t="n"/>
       <c r="C78" s="120" t="n"/>
@@ -2632,7 +2632,7 @@
       <c r="J78" s="119" t="n"/>
       <c r="K78" s="119" t="n"/>
     </row>
-    <row r="79" ht="12.75" customHeight="1" s="69">
+    <row r="79" ht="12.8" customHeight="1" s="69">
       <c r="A79" s="119" t="n"/>
       <c r="B79" s="120" t="n"/>
       <c r="C79" s="120" t="n"/>
@@ -2645,7 +2645,7 @@
       <c r="J79" s="119" t="n"/>
       <c r="K79" s="119" t="n"/>
     </row>
-    <row r="80" ht="12.75" customHeight="1" s="69">
+    <row r="80" ht="12.8" customHeight="1" s="69">
       <c r="A80" s="119" t="n"/>
       <c r="B80" s="120" t="n"/>
       <c r="C80" s="120" t="n"/>
@@ -2658,7 +2658,7 @@
       <c r="J80" s="119" t="n"/>
       <c r="K80" s="119" t="n"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1" s="69">
+    <row r="81" ht="12.8" customHeight="1" s="69">
       <c r="A81" s="119" t="n"/>
       <c r="B81" s="120" t="n"/>
       <c r="C81" s="120" t="n"/>
@@ -2671,7 +2671,7 @@
       <c r="J81" s="119" t="n"/>
       <c r="K81" s="119" t="n"/>
     </row>
-    <row r="82" ht="12.75" customHeight="1" s="69">
+    <row r="82" ht="12.8" customHeight="1" s="69">
       <c r="A82" s="119" t="n"/>
       <c r="B82" s="120" t="n"/>
       <c r="C82" s="120" t="n"/>
@@ -2684,7 +2684,7 @@
       <c r="J82" s="119" t="n"/>
       <c r="K82" s="119" t="n"/>
     </row>
-    <row r="83" ht="12.75" customHeight="1" s="69">
+    <row r="83" ht="12.8" customHeight="1" s="69">
       <c r="A83" s="119" t="n"/>
       <c r="B83" s="120" t="n"/>
       <c r="C83" s="120" t="n"/>
@@ -2697,7 +2697,7 @@
       <c r="J83" s="119" t="n"/>
       <c r="K83" s="119" t="n"/>
     </row>
-    <row r="84" ht="12.75" customHeight="1" s="69">
+    <row r="84" ht="12.8" customHeight="1" s="69">
       <c r="A84" s="119" t="n"/>
       <c r="B84" s="120" t="n"/>
       <c r="C84" s="120" t="n"/>
@@ -2710,7 +2710,7 @@
       <c r="J84" s="119" t="n"/>
       <c r="K84" s="119" t="n"/>
     </row>
-    <row r="85" ht="12.75" customHeight="1" s="69">
+    <row r="85" ht="12.8" customHeight="1" s="69">
       <c r="A85" s="119" t="n"/>
       <c r="B85" s="120" t="n"/>
       <c r="C85" s="120" t="n"/>
@@ -2723,7 +2723,7 @@
       <c r="J85" s="119" t="n"/>
       <c r="K85" s="119" t="n"/>
     </row>
-    <row r="86" ht="12.75" customHeight="1" s="69">
+    <row r="86" ht="12.8" customHeight="1" s="69">
       <c r="A86" s="119" t="n"/>
       <c r="B86" s="120" t="n"/>
       <c r="C86" s="120" t="n"/>
@@ -2736,7 +2736,7 @@
       <c r="J86" s="119" t="n"/>
       <c r="K86" s="119" t="n"/>
     </row>
-    <row r="87" ht="12.75" customHeight="1" s="69">
+    <row r="87" ht="12.8" customHeight="1" s="69">
       <c r="A87" s="119" t="n"/>
       <c r="B87" s="120" t="n"/>
       <c r="C87" s="120" t="n"/>
@@ -2749,7 +2749,7 @@
       <c r="J87" s="119" t="n"/>
       <c r="K87" s="119" t="n"/>
     </row>
-    <row r="88" ht="12.75" customHeight="1" s="69">
+    <row r="88" ht="12.8" customHeight="1" s="69">
       <c r="A88" s="119" t="n"/>
       <c r="B88" s="120" t="n"/>
       <c r="C88" s="120" t="n"/>
@@ -2762,7 +2762,7 @@
       <c r="J88" s="119" t="n"/>
       <c r="K88" s="119" t="n"/>
     </row>
-    <row r="89" ht="12.75" customHeight="1" s="69">
+    <row r="89" ht="12.8" customHeight="1" s="69">
       <c r="A89" s="119" t="n"/>
       <c r="B89" s="120" t="n"/>
       <c r="C89" s="120" t="n"/>
@@ -2775,7 +2775,7 @@
       <c r="J89" s="119" t="n"/>
       <c r="K89" s="119" t="n"/>
     </row>
-    <row r="90" ht="12.75" customHeight="1" s="69">
+    <row r="90" ht="12.8" customHeight="1" s="69">
       <c r="A90" s="119" t="n"/>
       <c r="B90" s="120" t="n"/>
       <c r="C90" s="120" t="n"/>
@@ -2788,7 +2788,7 @@
       <c r="J90" s="119" t="n"/>
       <c r="K90" s="119" t="n"/>
     </row>
-    <row r="91" ht="12.75" customHeight="1" s="69">
+    <row r="91" ht="12.8" customHeight="1" s="69">
       <c r="A91" s="119" t="n"/>
       <c r="B91" s="120" t="n"/>
       <c r="C91" s="120" t="n"/>
@@ -2801,7 +2801,7 @@
       <c r="J91" s="119" t="n"/>
       <c r="K91" s="119" t="n"/>
     </row>
-    <row r="92" ht="12.75" customHeight="1" s="69">
+    <row r="92" ht="12.8" customHeight="1" s="69">
       <c r="A92" s="119" t="n"/>
       <c r="B92" s="120" t="n"/>
       <c r="C92" s="120" t="n"/>
@@ -2814,7 +2814,7 @@
       <c r="J92" s="119" t="n"/>
       <c r="K92" s="119" t="n"/>
     </row>
-    <row r="93" ht="12.75" customHeight="1" s="69">
+    <row r="93" ht="12.8" customHeight="1" s="69">
       <c r="A93" s="119" t="n"/>
       <c r="B93" s="120" t="n"/>
       <c r="C93" s="120" t="n"/>
@@ -2827,7 +2827,7 @@
       <c r="J93" s="119" t="n"/>
       <c r="K93" s="119" t="n"/>
     </row>
-    <row r="94" ht="12.75" customHeight="1" s="69">
+    <row r="94" ht="12.8" customHeight="1" s="69">
       <c r="A94" s="119" t="n"/>
       <c r="B94" s="120" t="n"/>
       <c r="C94" s="120" t="n"/>
@@ -2840,7 +2840,7 @@
       <c r="J94" s="119" t="n"/>
       <c r="K94" s="119" t="n"/>
     </row>
-    <row r="95" ht="12.75" customHeight="1" s="69">
+    <row r="95" ht="12.8" customHeight="1" s="69">
       <c r="A95" s="119" t="n"/>
       <c r="B95" s="120" t="n"/>
       <c r="C95" s="120" t="n"/>
@@ -2853,7 +2853,7 @@
       <c r="J95" s="119" t="n"/>
       <c r="K95" s="119" t="n"/>
     </row>
-    <row r="96" ht="12.75" customHeight="1" s="69">
+    <row r="96" ht="12.8" customHeight="1" s="69">
       <c r="A96" s="119" t="n"/>
       <c r="B96" s="120" t="n"/>
       <c r="C96" s="120" t="n"/>
@@ -2866,7 +2866,7 @@
       <c r="J96" s="119" t="n"/>
       <c r="K96" s="119" t="n"/>
     </row>
-    <row r="97" ht="12.75" customHeight="1" s="69">
+    <row r="97" ht="12.8" customHeight="1" s="69">
       <c r="A97" s="119" t="n"/>
       <c r="B97" s="120" t="n"/>
       <c r="C97" s="120" t="n"/>
@@ -3099,11 +3099,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>03.03.2025</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3147,11 +3143,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>03.03.2025</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3195,11 +3187,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>03.03.2025</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3243,11 +3231,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>03.03.2025</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3291,11 +3275,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>03.03.2025</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3339,11 +3319,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>04.03.2025</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3387,11 +3363,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>04.03.2025</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3435,11 +3407,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>04.03.2025</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3483,11 +3451,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>04.03.2025</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3531,11 +3495,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>05.03.2025</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3579,11 +3539,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>05.03.2025</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3627,11 +3583,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>05.03.2025</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3675,11 +3627,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>05.03.2025</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3723,11 +3671,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>06.03.2025</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3771,11 +3715,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>06.03.2025</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3819,11 +3759,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>06.03.2025</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>08:00</t>
